--- a/Applications/IntelliDivide/Samples/Statistics/Material/Excel/MaterialEfficiency.xlsx
+++ b/Applications/IntelliDivide/Samples/Statistics/Material/Excel/MaterialEfficiency.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tb10bow\source\repos\HOMAG-Connect\Applications\IntelliDivide\Samples\Statistics\Material\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884CE274-4F23-4AD4-B8D2-63AFB1DCA0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D59703A-3716-4580-9B0E-88D83CB6CD18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25536" activeTab="6" xr2:uid="{C002B973-1343-4FF6-AEBC-1BCA157752AC}"/>
+    <workbookView xWindow="57492" yWindow="-108" windowWidth="38616" windowHeight="21216" xr2:uid="{C002B973-1343-4FF6-AEBC-1BCA157752AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle9" sheetId="15" r:id="rId1"/>
-    <sheet name="Source" sheetId="8" r:id="rId2"/>
-    <sheet name="PartsByMaterialCode" sheetId="11" r:id="rId3"/>
-    <sheet name="OffcutsGrowthByMaterialCode" sheetId="12" r:id="rId4"/>
-    <sheet name="OffcutGrowthByOptimization" sheetId="13" r:id="rId5"/>
-    <sheet name="OffcutGrowthOverTime" sheetId="14" r:id="rId6"/>
-    <sheet name="BoardsUsedByOptimization" sheetId="10" r:id="rId7"/>
+    <sheet name="Source" sheetId="8" r:id="rId1"/>
+    <sheet name="PartsByMaterialCode" sheetId="11" r:id="rId2"/>
+    <sheet name="OffcutsGrowthByMaterialCode" sheetId="12" r:id="rId3"/>
+    <sheet name="OffcutGrowthByOptimization" sheetId="13" r:id="rId4"/>
+    <sheet name="OffcutGrowthOverTime" sheetId="14" r:id="rId5"/>
+    <sheet name="BoardsUsedByOptimization" sheetId="10" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="ExterneDaten_1" localSheetId="1" hidden="1">Source!$A$1:$Q$123</definedName>
+    <definedName name="ExterneDaten_1" localSheetId="0" hidden="1">Source!$A$1:$Q$123</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="217">
   <si>
     <t>MDF_Roh_19</t>
   </si>
@@ -808,607 +807,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[MaterialEfficiency.xlsx]Tabelle9!PivotTable7</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle9!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ergebnis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Tabelle9!$A$2:$A$39</c:f>
-              <c:strCache>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>11-0514BS-08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11-0514BS-19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12-3856BS-19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cris1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>fa_regression</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>fa_test</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Fabi test</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>interior verde</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>M_1220_2140_C</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>M_1220_2140_L</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>M_1220_2140_N</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>M_1880_1880_C</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>M_1880_1880_L</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>M_1880_1880_N</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>M_1880_2140_C</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>M_1880_2140_L</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>M_1880_2140_N</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>M_2070_2070_C</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>M_2070_2070_L</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>M_2070_2070_N</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>M_2440_1220_C</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>M_2440_1220_L</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>M_2440_1220_N</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>M_2800_2070_C</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>M_2800_2070_L</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>M_2800_2070_N</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>MDF_Roh_19</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>P2_Gold Craft Oak_19</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>P2_Icy White_19</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>P2_Rustica Anderson Pine weiss_19</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>P2_Weiss_08</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>raluca mat</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>raluca test</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>raluca test new</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Reg_Andi_19</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>test 1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>VP_Birke_12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle9!$B$2:$B$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>1.5336000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8841000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.1913</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30.073099999999997</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.81020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.164199999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-2.0306000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0310999999999986</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4601000000000006</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.8959000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.9087000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4.1764000000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10.269400000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>29.841800000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>222.4127</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23.372799999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>119.7534</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.91</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.1661999999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>31.314299999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>15.034100000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-061D-44E8-803F-AB768A450581}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="218688111"/>
-        <c:axId val="218688471"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="218688111"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="218688471"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="218688471"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="218688111"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
     <c:name>[MaterialEfficiency.xlsx]PartsByMaterialCode!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
@@ -1501,6 +899,450 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="13"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="14"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="15"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="16"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="17"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="18"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="24"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="25"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="26"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="27"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="28"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="29"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="30"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="31"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="32"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="33"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="34"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="35"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="36"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="37"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout>
@@ -1542,6 +1384,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1555,6 +1402,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1568,6 +1420,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1581,6 +1438,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1594,6 +1456,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1607,6 +1474,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1622,6 +1494,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1637,6 +1514,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1652,6 +1534,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1667,6 +1554,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1682,6 +1574,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1697,6 +1594,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -1713,6 +1615,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="13"/>
@@ -1729,6 +1636,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="14"/>
@@ -1745,6 +1657,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="15"/>
@@ -1761,6 +1678,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1777,6 +1699,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="17"/>
@@ -1793,6 +1720,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="18"/>
@@ -1808,6 +1740,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="19"/>
@@ -1823,6 +1760,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="20"/>
@@ -1838,6 +1780,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="21"/>
@@ -1853,6 +1800,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="22"/>
@@ -1868,6 +1820,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="23"/>
@@ -1883,6 +1840,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="24"/>
@@ -1899,6 +1861,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="25"/>
@@ -1915,6 +1882,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="26"/>
@@ -1931,6 +1903,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="27"/>
@@ -1947,6 +1924,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="28"/>
@@ -1963,6 +1945,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="29"/>
@@ -1979,6 +1966,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="30"/>
@@ -1994,6 +1986,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="31"/>
@@ -2009,6 +2006,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="32"/>
@@ -2024,6 +2026,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="33"/>
@@ -2039,6 +2046,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="34"/>
@@ -2054,6 +2066,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="35"/>
@@ -2069,6 +2086,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="36"/>
@@ -2085,6 +2107,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-7EC1-427D-958B-F27561830FF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2441,7 +2468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -3276,7 +3303,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -5623,7 +5650,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -6599,7 +6626,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -10804,46 +10831,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -13359,551 +13346,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA3E97F-06AB-1A3B-8B99-1EA65FA73BEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13944,7 +13387,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13985,7 +13428,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14026,7 +13469,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14067,7 +13510,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17156,7 +16599,663 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E4CE317-5035-4BF1-B0D4-AAA73E0C5589}" name="PivotTable7" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{289F7052-2F82-4ADE-AAD0-85F737B995A5}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="18">
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="38">
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="13"/>
+        <item x="16"/>
+        <item x="36"/>
+        <item x="35"/>
+        <item x="30"/>
+        <item x="0"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="1"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="28"/>
+        <item x="3"/>
+        <item x="29"/>
+        <item x="14"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="12"/>
+        <item x="6"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="15"/>
+        <item x="34"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="38">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Summe von parts" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="38">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="15"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="16"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="17"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="18"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="19"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="21"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="23">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="24">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="23"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="25">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="26">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="27">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="28">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="27"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="29">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="30">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="29"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="31">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="30"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="32">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="31"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="33">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="32"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="34">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="33"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="35">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="34"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="36">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="35"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="37">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="36"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9F981B1-8885-4703-873A-0542CC0D0084}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField numFmtId="22" showAll="0"/>
@@ -17345,219 +17444,7 @@
     <dataField name="Summe von offcutsGrowth" fld="13" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{289F7052-2F82-4ADE-AAD0-85F737B995A5}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="38">
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="30"/>
-        <item x="0"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="17"/>
-        <item x="1"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="3"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="34"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="38">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Summe von parts" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -17580,219 +17467,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B9F981B1-8885-4703-873A-0542CC0D0084}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="18">
-    <pivotField numFmtId="22" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="38">
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="13"/>
-        <item x="16"/>
-        <item x="36"/>
-        <item x="35"/>
-        <item x="30"/>
-        <item x="0"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="17"/>
-        <item x="1"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="28"/>
-        <item x="3"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="12"/>
-        <item x="6"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="15"/>
-        <item x="34"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="38">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Summe von offcutsGrowth" fld="13" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EFF7456-0A26-45D8-ABE6-E16518F2E69D}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7EFF7456-0A26-45D8-ABE6-E16518F2E69D}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B213" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
@@ -19407,8 +19082,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECC803E3-A393-4A86-B162-1473CA7B7F7F}" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ECC803E3-A393-4A86-B162-1473CA7B7F7F}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B113" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
@@ -20232,8 +19907,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4A276E7-8BE5-4348-8AA4-F2717A0F32BE}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B4A276E7-8BE5-4348-8AA4-F2717A0F32BE}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B94" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
@@ -21960,343 +21635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398FDFBF-1B4E-4061-806B-212FDFE8CCA7}">
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O54" sqref="O54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1.5336000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="4">
-        <v>5.8841000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="4">
-        <v>6.1913</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30.073099999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.81020000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="4">
-        <v>11.164199999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-2.0306000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
-        <v>9.0310999999999986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>6.4601000000000006</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="4">
-        <v>7.8959000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="4">
-        <v>1.9087000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="4">
-        <v>4.1764000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="4">
-        <v>10.269400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4">
-        <v>29.841800000000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="4">
-        <v>222.4127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4">
-        <v>23.372799999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="4">
-        <v>119.7534</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="4">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4.1661999999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="4">
-        <v>31.314299999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B38" s="4">
-        <v>15.034100000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B39" s="4">
-        <v>543.17279999999994</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934606D9-7E0F-4F0C-A8EF-A44DF87C7589}">
   <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -28846,11 +28189,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F97BAA-49D8-4253-8EA7-E180720BCF9C}">
   <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
@@ -29178,7 +28521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CDE002-AAF0-4A3E-9267-DCB976DF4A3C}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -29511,7 +28854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE5B183-C2E3-4433-A498-F57B2ADFDAAD}">
   <dimension ref="A1:B213"/>
   <sheetViews>
@@ -31267,7 +30610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F2DDBA-73F6-41DD-AC69-87D62756277C}">
   <dimension ref="A1:B113"/>
   <sheetViews>
@@ -32183,11 +31526,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{725249A5-B00C-4D4D-870E-D98CCF128C8A}">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G77" sqref="G77"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
